--- a/data/results/advanced_analysis/visualization/阿里健康大药房_topics.xlsx
+++ b/data/results/advanced_analysis/visualization/阿里健康大药房_topics.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41.61944444444445</v>
+        <v>46.11388888888889</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29.21774193548387</v>
+        <v>33.11290322580645</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37.72520661157025</v>
+        <v>39.7107438016529</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40.18727915194346</v>
+        <v>41.06890459363957</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27.61184210526316</v>
+        <v>29.51315789473684</v>
       </c>
     </row>
   </sheetData>
